--- a/Phase_Two/docs/CPU_Deadlock_Data.xlsx
+++ b/Phase_Two/docs/CPU_Deadlock_Data.xlsx
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -82,7 +82,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -138,7 +144,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,7 +225,35 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -255,11 +289,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -343,11 +382,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -431,11 +475,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -491,17 +540,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="90232262"/>
-        <c:axId val="18132133"/>
+        <c:axId val="63575078"/>
+        <c:axId val="97672382"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90232262"/>
+        <c:axId val="63575078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -518,12 +567,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18132133"/>
+        <c:crossAx val="97672382"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -531,7 +584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18132133"/>
+        <c:axId val="97672382"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +599,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -563,12 +616,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90232262"/>
+        <c:crossAx val="63575078"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -596,7 +653,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -627,9 +688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>519120</xdr:colOff>
+      <xdr:colOff>518760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -638,7 +699,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="125280" y="2563560"/>
-        <a:ext cx="5754600" cy="3238560"/>
+        <a:ext cx="5754240" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -765,7 +826,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
